--- a/carteira_momentum_acompanhamento.xlsx
+++ b/carteira_momentum_acompanhamento.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathe\Desktop\Python Projects\investimentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1520A9-A06A-4A17-8DDB-45223600850B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED70B34A-0DA8-48DC-B4EF-C023E7B7E34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{A451EAB1-C063-4668-AF03-B0572C137E6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="52">
   <si>
     <t>Papel</t>
   </si>
@@ -143,33 +143,33 @@
     <t>EMBR3</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>CSNA3</t>
   </si>
   <si>
+    <t>TAEE11</t>
+  </si>
+  <si>
+    <t>JBSS3</t>
+  </si>
+  <si>
+    <t>PETR3</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>SLCE3</t>
+  </si>
+  <si>
     <t>ENGI11</t>
   </si>
   <si>
-    <t>JBSS3</t>
-  </si>
-  <si>
-    <t>PETR3</t>
-  </si>
-  <si>
     <t>PRIO3</t>
   </si>
   <si>
-    <t>SLCE3</t>
-  </si>
-  <si>
-    <t>TAEE11</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>CMIN3</t>
   </si>
   <si>
@@ -177,19 +177,40 @@
   </si>
   <si>
     <t>EQTL3</t>
+  </si>
+  <si>
+    <t>NTCO3</t>
+  </si>
+  <si>
+    <t>TEND3</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>ARZZ3</t>
+  </si>
+  <si>
+    <t>CVCB3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -229,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,21 +585,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DC3597-41E4-4BA2-AA82-29D175EA7780}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82:D91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -606,7 +627,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -620,7 +641,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -634,7 +655,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -648,7 +669,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -662,7 +683,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -676,7 +697,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -690,7 +711,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -704,7 +725,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -718,7 +739,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -732,7 +753,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -746,7 +767,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -760,7 +781,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -774,7 +795,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -788,7 +809,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -802,7 +823,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -816,7 +837,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -830,7 +851,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -844,7 +865,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -858,7 +879,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -872,7 +893,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -886,7 +907,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -900,7 +921,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -914,7 +935,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -928,7 +949,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -942,7 +963,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -956,7 +977,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -970,7 +991,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -984,7 +1005,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -998,7 +1019,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1012,7 +1033,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1026,7 +1047,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1040,7 +1061,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -1054,7 +1075,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1068,7 +1089,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -1082,7 +1103,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1096,7 +1117,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1110,7 +1131,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -1124,7 +1145,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -1138,7 +1159,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -1152,7 +1173,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -1160,125 +1181,125 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2">
         <v>45382</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D43" s="2">
         <v>45382</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2">
         <v>45382</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B45">
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D45" s="2">
         <v>45382</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D46" s="2">
         <v>45382</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D47" s="2">
         <v>45382</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B48">
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D48" s="2">
         <v>45382</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B49">
         <v>8</v>
       </c>
       <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="2">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
         <v>43</v>
-      </c>
-      <c r="D49" s="2">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>39</v>
       </c>
       <c r="B50">
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D50" s="2">
         <v>45382</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -1286,13 +1307,13 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D51" s="2">
         <v>45382</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -1300,13 +1321,13 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D52" s="2">
         <v>45351</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -1314,41 +1335,41 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D53" s="2">
         <v>45351</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D54" s="2">
         <v>45351</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B55">
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D55" s="2">
         <v>45351</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>46</v>
       </c>
@@ -1356,27 +1377,27 @@
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D56" s="2">
         <v>45351</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B57">
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D57" s="2">
         <v>45351</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -1384,41 +1405,41 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D58" s="2">
         <v>45351</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B59">
         <v>8</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
         <v>43</v>
-      </c>
-      <c r="D59" s="2">
-        <v>45351</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>39</v>
       </c>
       <c r="B60">
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D60" s="2">
         <v>45351</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -1426,10 +1447,430 @@
         <v>10</v>
       </c>
       <c r="C61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="2">
-        <v>45351</v>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15">
+      <c r="A72" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15">
+      <c r="A73" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15">
+      <c r="A74" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15">
+      <c r="A75" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15">
+      <c r="A76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15">
+      <c r="A77" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15">
+      <c r="A78" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15">
+      <c r="A79" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15">
+      <c r="A80" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15">
+      <c r="A81" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15">
+      <c r="A82" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15">
+      <c r="A83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15">
+      <c r="A84" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15">
+      <c r="A85" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15">
+      <c r="A86" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15">
+      <c r="A87" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15">
+      <c r="A88" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15">
+      <c r="A89" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15">
+      <c r="A90" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15">
+      <c r="A91" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="2">
+        <v>45412</v>
       </c>
     </row>
   </sheetData>

--- a/carteira_momentum_acompanhamento.xlsx
+++ b/carteira_momentum_acompanhamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8804ed201e18d711/Documentos/Investimentos/Acompanhamento Momentum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{ED70B34A-0DA8-48DC-B4EF-C023E7B7E34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{256DCA3D-A52C-44E0-A7F9-A2E5EBFD212C}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{ED70B34A-0DA8-48DC-B4EF-C023E7B7E34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC6E01B3-1820-4C70-AEE8-F7B3AA10A0D1}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{A451EAB1-C063-4668-AF03-B0572C137E6A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="61">
   <si>
     <t>Papel</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>momentum</t>
+  </si>
+  <si>
+    <t>ECOR3</t>
   </si>
 </sst>
 </file>
@@ -283,7 +286,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -299,6 +302,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DC3597-41E4-4BA2-AA82-29D175EA7780}">
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2424,7 +2431,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>54</v>
       </c>
@@ -2438,7 +2445,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>18</v>
       </c>
@@ -2452,7 +2459,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -2466,7 +2473,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>34</v>
       </c>
@@ -2480,7 +2487,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>21</v>
       </c>
@@ -2494,7 +2501,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -2508,7 +2515,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>20</v>
       </c>
@@ -2522,7 +2529,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>47</v>
       </c>
@@ -2536,7 +2543,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>18</v>
       </c>
@@ -2546,11 +2553,11 @@
       <c r="C137" t="s">
         <v>59</v>
       </c>
-      <c r="D137" s="5">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D137" s="2">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -2563,8 +2570,9 @@
       <c r="D138" s="2">
         <v>45382</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F138" s="5"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>34</v>
       </c>
@@ -2578,7 +2586,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>23</v>
       </c>
@@ -2592,7 +2600,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>24</v>
       </c>
@@ -2606,7 +2614,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>21</v>
       </c>
@@ -2620,7 +2628,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>15</v>
       </c>
@@ -2632,6 +2640,104 @@
       </c>
       <c r="D143" s="2">
         <v>45382</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>18</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>59</v>
+      </c>
+      <c r="D144" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>44</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>59</v>
+      </c>
+      <c r="D145" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>19</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>59</v>
+      </c>
+      <c r="D146" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>60</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>59</v>
+      </c>
+      <c r="D147" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>23</v>
+      </c>
+      <c r="B148">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>59</v>
+      </c>
+      <c r="D148" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149">
+        <v>6</v>
+      </c>
+      <c r="C149" t="s">
+        <v>59</v>
+      </c>
+      <c r="D149" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>24</v>
+      </c>
+      <c r="B150">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>59</v>
+      </c>
+      <c r="D150" s="2">
+        <v>45351</v>
       </c>
     </row>
   </sheetData>

--- a/carteira_momentum_acompanhamento.xlsx
+++ b/carteira_momentum_acompanhamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8804ed201e18d711/Documentos/Investimentos/Acompanhamento Momentum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{ED70B34A-0DA8-48DC-B4EF-C023E7B7E34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC6E01B3-1820-4C70-AEE8-F7B3AA10A0D1}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{ED70B34A-0DA8-48DC-B4EF-C023E7B7E34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ED94C54-CE2C-4D3D-856E-3B51973E61FC}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{A451EAB1-C063-4668-AF03-B0572C137E6A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="61">
   <si>
     <t>Papel</t>
   </si>
@@ -625,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DC3597-41E4-4BA2-AA82-29D175EA7780}">
-  <dimension ref="A1:F150"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B127">
         <v>6</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B128">
         <v>7</v>
@@ -2433,24 +2433,24 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B129">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C129" t="s">
         <v>59</v>
       </c>
       <c r="D129" s="2">
-        <v>45443</v>
+        <v>45412</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" t="s">
         <v>59</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C131" t="s">
         <v>59</v>
@@ -2475,10 +2475,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C132" t="s">
         <v>59</v>
@@ -2489,10 +2489,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>59</v>
@@ -2503,10 +2503,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B134">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>59</v>
@@ -2517,10 +2517,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B135">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>59</v>
@@ -2531,24 +2531,24 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B136">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C136" t="s">
         <v>59</v>
       </c>
       <c r="D136" s="2">
-        <v>45412</v>
+        <v>45382</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C137" t="s">
         <v>59</v>
@@ -2556,13 +2556,14 @@
       <c r="D137" s="2">
         <v>45382</v>
       </c>
+      <c r="F137" s="5"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C138" t="s">
         <v>59</v>
@@ -2570,14 +2571,13 @@
       <c r="D138" s="2">
         <v>45382</v>
       </c>
-      <c r="F138" s="5"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C139" t="s">
         <v>59</v>
@@ -2588,10 +2588,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>59</v>
@@ -2602,10 +2602,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B141">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>59</v>
@@ -2616,10 +2616,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B142">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>59</v>
@@ -2630,24 +2630,24 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B143">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C143" t="s">
         <v>59</v>
       </c>
       <c r="D143" s="2">
-        <v>45382</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C144" t="s">
         <v>59</v>
@@ -2658,10 +2658,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C145" t="s">
         <v>59</v>
@@ -2672,10 +2672,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C146" t="s">
         <v>59</v>
@@ -2686,10 +2686,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B147">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>59</v>
@@ -2700,10 +2700,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B148">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>59</v>
@@ -2714,29 +2714,15 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B149">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>59</v>
       </c>
       <c r="D149" s="2">
-        <v>45351</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A150" t="s">
-        <v>24</v>
-      </c>
-      <c r="B150">
-        <v>7</v>
-      </c>
-      <c r="C150" t="s">
-        <v>59</v>
-      </c>
-      <c r="D150" s="2">
         <v>45351</v>
       </c>
     </row>
